--- a/result/cross_validation_results.xlsx
+++ b/result/cross_validation_results.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>生成時間: 2025年11月25日 11:58:22</t>
+          <t>生成時間: 2025年11月26日 09:42:59</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>交叉驗證最佳AUC: RF (0.9880 ± 0.0075)</t>
+          <t>交叉驗證最佳AUC: RF (0.9868 ± 0.0095)</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>交叉驗證最佳AUC: SVM (0.9562 ± 0.0274)</t>
+          <t>交叉驗證最佳AUC: SVM (0.9564 ± 0.0271)</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>交叉驗證最佳AUC: SVM (0.9696 ± 0.0208)</t>
+          <t>交叉驗證最佳AUC: SVM (0.9697 ± 0.0207)</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>交叉驗證最佳AUC: SVM (0.9678 ± 0.0171)</t>
+          <t>交叉驗證最佳AUC: SVM (0.9679 ± 0.0169)</t>
         </is>
       </c>
     </row>
@@ -721,28 +721,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>0.8074</v>
+        <v>0.8038</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.0531</v>
+        <v>0.0552</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.7558</v>
+        <v>0.7511</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.0829</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.7314000000000001</v>
+        <v>0.7171</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.0505</v>
+        <v>0.0698</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.7412</v>
+        <v>0.7313</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.0552</v>
+        <v>0.0668</v>
       </c>
     </row>
     <row r="4">
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>0.9696</v>
+        <v>0.9697</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.0208</v>
+        <v>0.0207</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>0.9694</v>
@@ -783,28 +783,28 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>0.95</v>
+        <v>0.9513</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.0338</v>
+        <v>0.0342</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.8847</v>
+        <v>0.8932</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.0944</v>
+        <v>0.08309999999999999</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.4866</v>
+        <v>0.4961</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.111</v>
+        <v>0.1011</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6213</v>
+        <v>0.6323</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0999</v>
+        <v>0.0924</v>
       </c>
     </row>
     <row r="6">
@@ -817,25 +817,25 @@
         <v>0.9499</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>0.0286</v>
+        <v>0.0274</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.8678</v>
+        <v>0.8719</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.1055</v>
+        <v>0.0934</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0.6792</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.114</v>
+        <v>0.1058</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7571</v>
+        <v>0.7596000000000001</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.0854</v>
       </c>
     </row>
   </sheetData>
@@ -1071,28 +1071,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>0.7796999999999999</v>
+        <v>0.7832</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.06469999999999999</v>
+        <v>0.0609</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.7599</v>
+        <v>0.7557</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.06660000000000001</v>
+        <v>0.0742</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.7076</v>
+        <v>0.7123</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.0583</v>
+        <v>0.0525</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.7316</v>
+        <v>0.7318</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.0549</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="4">
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>0.9678</v>
+        <v>0.9679</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.0171</v>
+        <v>0.0169</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>0.9594</v>
@@ -1133,28 +1133,28 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>0.9347</v>
+        <v>0.9351</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.0334</v>
+        <v>0.0322</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.906</v>
+        <v>0.8951</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.09039999999999999</v>
+        <v>0.0973</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.4013</v>
+        <v>0.3965</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1035</v>
+        <v>0.1137</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.547</v>
+        <v>0.5387999999999999</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0999</v>
+        <v>0.1106</v>
       </c>
     </row>
     <row r="6">
@@ -1164,28 +1164,28 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>0.9448</v>
+        <v>0.9357</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>0.0209</v>
+        <v>0.025</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.7983</v>
+        <v>0.8268</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.1192</v>
+        <v>0.136</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.716</v>
+        <v>0.6656</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1198</v>
+        <v>0.1427</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7476</v>
+        <v>0.7301</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0954</v>
+        <v>0.1238</v>
       </c>
     </row>
   </sheetData>
@@ -1421,16 +1421,16 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>0.911</v>
+        <v>0.9096</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.0338</v>
+        <v>0.0359</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.8626</v>
+        <v>0.8511</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.0429</v>
+        <v>0.0592</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>0.8156</v>
@@ -1439,10 +1439,10 @@
         <v>0.0625</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.8368</v>
+        <v>0.8312</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.0384</v>
+        <v>0.0466</v>
       </c>
     </row>
     <row r="4">
@@ -1452,10 +1452,10 @@
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>0.96</v>
+        <v>0.9599</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.0323</v>
+        <v>0.0325</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>0.9514</v>
@@ -1483,28 +1483,28 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>0.988</v>
+        <v>0.9868</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.0075</v>
+        <v>0.0095</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.9244</v>
+        <v>0.9249000000000001</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.0502</v>
+        <v>0.0434</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.8067</v>
+        <v>0.8115</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0607</v>
+        <v>0.0588</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8609</v>
+        <v>0.8637</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.052</v>
+        <v>0.0471</v>
       </c>
     </row>
     <row r="6">
@@ -1514,28 +1514,28 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>0.9352</v>
+        <v>0.9367</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>0.0551</v>
+        <v>0.055</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.9459</v>
+        <v>0.9452</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.0495</v>
+        <v>0.0496</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.5786</v>
+        <v>0.5742</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1447</v>
+        <v>0.1405</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7071</v>
+        <v>0.7042</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1238</v>
+        <v>0.1219</v>
       </c>
     </row>
   </sheetData>
@@ -2471,16 +2471,16 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>0.8475</v>
+        <v>0.8542999999999999</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.0501</v>
+        <v>0.0377</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.8072</v>
+        <v>0.8036</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.0945</v>
+        <v>0.0978</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>0.7258</v>
@@ -2489,10 +2489,10 @@
         <v>0.09080000000000001</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.7614</v>
+        <v>0.7597</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.0788</v>
+        <v>0.0803</v>
       </c>
     </row>
     <row r="4">
@@ -2502,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>0.9562</v>
+        <v>0.9564</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.0274</v>
+        <v>0.0271</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>0.9728</v>
@@ -2533,28 +2533,28 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>0.9453</v>
+        <v>0.9448</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>0.0166</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.8517</v>
+        <v>0.8532</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.0914</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.3781</v>
+        <v>0.3779</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.106</v>
+        <v>0.1134</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5161</v>
+        <v>0.5145</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1088</v>
+        <v>0.1142</v>
       </c>
     </row>
     <row r="6">
@@ -2564,28 +2564,28 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>0.929</v>
+        <v>0.9301</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>0.0408</v>
+        <v>0.0411</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.846</v>
+        <v>0.8466</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.09039999999999999</v>
+        <v>0.0888</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.5972</v>
+        <v>0.6019</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.179</v>
+        <v>0.1864</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6892</v>
+        <v>0.6917</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.158</v>
+        <v>0.1619</v>
       </c>
     </row>
   </sheetData>
